--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82514.24697426347</v>
+        <v>-91933.19156982454</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34210277.22740056</v>
+        <v>34095737.92864072</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13200167.84783887</v>
+        <v>12596386.88795504</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2565617.60203262</v>
+        <v>2843700.361604067</v>
       </c>
     </row>
     <row r="11">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>194.3341769963107</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.262548922260277</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>3.262548922260277</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.262548922260277</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5263742585039</v>
       </c>
       <c r="V18" t="n">
-        <v>3.262548922260277</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>2.873653090726851</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>45.17036150835275</v>
       </c>
       <c r="C19" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.262548922260277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>3.262548922260277</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.96044885662929</v>
+        <v>402.9335988151229</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>84.93117419743029</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>236.5789795615672</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2320,19 +2320,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>195.7731869217377</v>
+        <v>192.3085274337928</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>85.1488807209173</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>170.3034090720304</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>139.4481372926017</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>213.5382021707739</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,13 +2614,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>26.23442655956067</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>201.215045833241</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>141.8733179420223</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.6157531058527</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>75.68730996688959</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>180.2890718295307</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3040,10 +3040,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>323.489263297807</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>21.37607145135485</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>100.9386117200757</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>267.5145791923104</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>7.722803593221053</v>
+        <v>65.63727264400148</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>329.8617268743274</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>224.2859784939131</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>170.3034090720313</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>185.0832217507329</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>332.5294404877632</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1540913337368</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>126.1229998465231</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>196.2048876063469</v>
+        <v>213.7416271160856</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>52.46272922979595</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5646102646769</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.55650787565989</v>
+        <v>229.7519990296279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2610039137808222</v>
+        <v>229.7519990296279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2610039137808222</v>
+        <v>229.7519990296279</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2610039137808222</v>
+        <v>83.79828774524228</v>
       </c>
       <c r="J17" t="n">
-        <v>1.160310701713751</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K17" t="n">
-        <v>2.508138455589631</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L17" t="n">
-        <v>4.180237967355346</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M17" t="n">
-        <v>6.040770853278586</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N17" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O17" t="n">
-        <v>9.716685196678942</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P17" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.38460615143388</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R17" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05019568904111</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05019568904111</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05019568904111</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05019568904111</v>
+        <v>638.0381227299745</v>
       </c>
       <c r="X17" t="n">
-        <v>10.14751579941803</v>
+        <v>638.0381227299745</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.852011837538958</v>
+        <v>229.7519990296279</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.55650787565989</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C18" t="n">
-        <v>3.55650787565989</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
-        <v>3.55650787565989</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E18" t="n">
-        <v>3.55650787565989</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F18" t="n">
-        <v>3.55650787565989</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55650787565989</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4561956203818616</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9918165824064465</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>1.907278118958099</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L18" t="n">
-        <v>3.138229129822361</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M18" t="n">
-        <v>4.574690899292686</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N18" t="n">
-        <v>6.049171537475494</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O18" t="n">
-        <v>7.398033258238116</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P18" t="n">
-        <v>10.62795669127579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.69820412233483</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R18" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S18" t="n">
-        <v>9.75469172716204</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>9.75469172716204</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
-        <v>9.75469172716204</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V18" t="n">
-        <v>6.459187765282972</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>3.55650787565989</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>3.55650787565989</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.55650787565989</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.55650787565989</v>
+        <v>446.5810894800243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2610039137808222</v>
+        <v>446.5810894800243</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2610039137808222</v>
+        <v>280.703096681547</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2610039137808222</v>
+        <v>280.703096681547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2610039137808222</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610039137808222</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2610039137808222</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>3.490927346818497</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>4.04313012659984</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>4.749759567956967</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M19" t="n">
-        <v>7.84629854752842</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N19" t="n">
-        <v>8.57362479103854</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O19" t="n">
-        <v>9.245428298083951</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>9.820272256003435</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R19" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U19" t="n">
-        <v>10.14751579941803</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V19" t="n">
-        <v>6.852011837538958</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W19" t="n">
-        <v>3.55650787565989</v>
+        <v>965.0191426187184</v>
       </c>
       <c r="X19" t="n">
-        <v>3.55650787565989</v>
+        <v>719.6273879521309</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.55650787565989</v>
+        <v>492.2077172662392</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C20" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D20" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E20" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F20" t="n">
         <v>33.45485054850599</v>
@@ -5749,19 +5749,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.7982877452424</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5788,16 +5788,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V20" t="n">
-        <v>1310.125577359126</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W20" t="n">
-        <v>905.2701227701591</v>
+        <v>1267.887072836333</v>
       </c>
       <c r="X20" t="n">
-        <v>486.1276593494698</v>
+        <v>848.7446094156434</v>
       </c>
       <c r="Y20" t="n">
-        <v>486.1276593494698</v>
+        <v>440.4584857152968</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>236.3000591453949</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
@@ -5831,25 +5831,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L21" t="n">
-        <v>416.9883711887014</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M21" t="n">
-        <v>595.456072215418</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N21" t="n">
-        <v>778.6472822410933</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O21" t="n">
-        <v>946.2314501067034</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q21" t="n">
         <v>1511.8379027716</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.1619045867498</v>
+        <v>119.2439153943952</v>
       </c>
       <c r="C22" t="n">
-        <v>210.1619045867498</v>
+        <v>119.2439153943952</v>
       </c>
       <c r="D22" t="n">
-        <v>210.1619045867498</v>
+        <v>119.2439153943952</v>
       </c>
       <c r="E22" t="n">
-        <v>210.1619045867498</v>
+        <v>119.2439153943952</v>
       </c>
       <c r="F22" t="n">
         <v>33.45485054850599</v>
@@ -5910,25 +5910,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>304.3051044129577</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M22" t="n">
-        <v>718.3088799507193</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N22" t="n">
-        <v>1132.312655488481</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O22" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
         <v>1667.182735391305</v>
@@ -5940,22 +5940,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.773861201494</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V22" t="n">
-        <v>1146.818353071925</v>
+        <v>864.0817451605828</v>
       </c>
       <c r="W22" t="n">
-        <v>874.7919486582161</v>
+        <v>592.0553407468744</v>
       </c>
       <c r="X22" t="n">
-        <v>629.4001939916286</v>
+        <v>346.6635860802869</v>
       </c>
       <c r="Y22" t="n">
-        <v>401.9805233057369</v>
+        <v>119.2439153943952</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1106.599419841793</v>
+        <v>640.9602806813895</v>
       </c>
       <c r="C23" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895473</v>
@@ -5986,25 +5986,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027047</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y23" t="n">
-        <v>1532.898990326701</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906846</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127630994</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1928.945530822401</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1889.485634438363</v>
+        <v>662.40439657733</v>
       </c>
       <c r="C26" t="n">
-        <v>1451.343161621787</v>
+        <v>662.40439657733</v>
       </c>
       <c r="D26" t="n">
-        <v>1015.433376796231</v>
+        <v>662.40439657733</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>662.40439657733</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>662.40439657733</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>262.9017052568071</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X26" t="n">
-        <v>1889.485634438363</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.485634438363</v>
+        <v>662.40439657733</v>
       </c>
     </row>
     <row r="27">
@@ -6287,40 +6287,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.1113136517137</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
         <v>192.6919004158277</v>
@@ -6396,40 +6396,40 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V28" t="n">
-        <v>1668.767762136888</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W28" t="n">
-        <v>1396.74135772318</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X28" t="n">
-        <v>1151.349603056593</v>
+        <v>1319.711511909523</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.9299323707007</v>
+        <v>1092.291841223631</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E29" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2176.554825902915</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2176.554825902915</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2176.554825902915</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.200554108492</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>471.655226289377</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C31" t="n">
-        <v>299.093514772602</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D31" t="n">
-        <v>133.2155219741246</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895474</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M31" t="n">
-        <v>1236.93553127931</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,7 +6648,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
         <v>1973.653814855378</v>
@@ -6657,16 +6657,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X31" t="n">
-        <v>890.8935156942559</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.4738450083642</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1526.86868437219</v>
+        <v>1681.790385646738</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1243.647912830162</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>807.7381280046061</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>373.9633831629013</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>373.9633831629013</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1526.86868437219</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W32" t="n">
-        <v>1526.86868437219</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X32" t="n">
-        <v>1526.86868437219</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y32" t="n">
-        <v>1526.86868437219</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6776,13 +6776,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>941.3221210718611</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.17407462327</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>1133.140739790848</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1308.351417301975</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C35" t="n">
-        <v>1308.351417301975</v>
+        <v>984.5772213516752</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.351417301975</v>
+        <v>548.6674365261197</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>548.6674365261197</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>548.6674365261197</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>149.1647452055968</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>1727.493880722664</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X35" t="n">
-        <v>1308.351417301975</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.351417301975</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.196554659879</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C37" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.331138940781</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527956</v>
@@ -7119,28 +7119,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1965.853003145054</v>
+        <v>1628.966907506139</v>
       </c>
       <c r="W37" t="n">
-        <v>1693.826598731346</v>
+        <v>1356.940503092431</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.434844064758</v>
+        <v>1111.548748425843</v>
       </c>
       <c r="Y37" t="n">
-        <v>1221.015173378866</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1618.847790237969</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C38" t="n">
-        <v>1180.705317421392</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D38" t="n">
-        <v>744.7955325958366</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E38" t="n">
-        <v>744.7955325958366</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y38" t="n">
-        <v>1952.04145374739</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="39">
@@ -7232,31 +7232,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7329,46 +7329,46 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9929992049551</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.877393424667</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>2043.877393424667</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V40" t="n">
-        <v>1756.921885295098</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W40" t="n">
         <v>1756.921885295098</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1526.86868437219</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.726211555613</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>652.8164267300576</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>652.8164267300576</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>652.8164267300576</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1526.86868437219</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X41" t="n">
-        <v>1526.86868437219</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y41" t="n">
-        <v>1526.86868437219</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.3289888817353</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="C43" t="n">
-        <v>685.7672773649603</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D43" t="n">
-        <v>526.0156699571453</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>289.492000983386</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.94094549648</v>
+        <v>1846.256845313435</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.98543736691</v>
+        <v>1559.301337183865</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.959032953202</v>
+        <v>1287.274932770157</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.567278286614</v>
+        <v>1041.883178103569</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.147607600722</v>
+        <v>814.4635074176776</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586986</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.54685999802</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="Y44" t="n">
-        <v>673.2607362976731</v>
+        <v>932.3314277761586</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,31 +7718,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7803,25 +7803,25 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>358.0754347909401</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540313</v>
@@ -7830,19 +7830,19 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855378</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V46" t="n">
-        <v>1973.653814855378</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W46" t="n">
         <v>1756.921885295098</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.169033317551269</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.360172798674229</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.923123287322519</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M19" t="n">
-        <v>2.375249808503934</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.860536639450494</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.27435144824432</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>73.43689191893563</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M22" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464602</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,10 +10281,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>30.81754489126183</v>
       </c>
       <c r="O31" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O34" t="n">
-        <v>158.2045317475399</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464595</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>192.4544649334021</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>69.27619576520596</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,10 +11457,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>69.27619576520624</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="M46" t="n">
         <v>458.1582657371569</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>418.7740258577984</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>430.4984991661506</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>235.1028203969771</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3731502167427</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>412.0773856957555</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>400.9407135410828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>180.5958736334111</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>144.7300710234445</v>
       </c>
       <c r="C19" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>272.7747557798793</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>266.0435914473111</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>392.0761259234294</v>
+        <v>19.10297596493581</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23980,7 +23980,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>396.054118850051</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
@@ -24028,7 +24028,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24138,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>90.00880930043104</v>
       </c>
       <c r="G22" t="n">
         <v>163.3388892342509</v>
@@ -24180,10 +24180,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>39.03715628748508</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>237.9878611666732</v>
+        <v>241.4525206546182</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>82.91154299085281</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.002731297541</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>289.988860100686</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>53.48613377075478</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>257.8515264887131</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>41.72279128668063</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>114.6066666216789</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>254.5875093574904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>167.2505271530321</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>253.4719762588802</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>72.01840110951053</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>149.4600229502525</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>166.0857242214529</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>133.2923208507666</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>276.3631494550528</v>
+        <v>218.4486804042724</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.17484790573127</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>190.6650602925693</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>69.52134278359615</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>99.00273129754089</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>62.97822391955443</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707548</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>6.065121536755726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>149.4797657852213</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>225.8316871737118</v>
+        <v>208.2949476639731</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>231.6232238184779</v>
       </c>
       <c r="W46" t="n">
-        <v>54.74153010489451</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2701.482444947411</v>
+        <v>341031.6789849495</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>431099.5855659339</v>
+        <v>431099.5855659337</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>431099.5855659339</v>
+        <v>431099.5855659338</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>431099.5855659338</v>
+        <v>431099.5855659337</v>
       </c>
     </row>
     <row r="16">
@@ -26328,7 +26328,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>822.1910714694035</v>
+        <v>103464.9542517201</v>
       </c>
       <c r="H2" t="n">
         <v>103464.9542517201</v>
@@ -26337,22 +26337,22 @@
         <v>133702.9356056947</v>
       </c>
       <c r="J2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="K2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="L2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="M2" t="n">
         <v>133702.9356056947</v>
       </c>
       <c r="N2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="O2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="P2" t="n">
         <v>133702.9356056947</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2964.145017549303</v>
+        <v>371788.8610770355</v>
       </c>
       <c r="H3" t="n">
-        <v>363185.3803188278</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>148032.4060558943</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>785.135660690858</v>
+        <v>100636.7904918564</v>
       </c>
       <c r="P3" t="n">
-        <v>98077.02880545655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0099934310371</v>
+        <v>18827.09897504209</v>
       </c>
       <c r="H4" t="n">
         <v>18827.09897504208</v>
@@ -26441,10 +26441,10 @@
         <v>14728.7909942616</v>
       </c>
       <c r="J4" t="n">
-        <v>14728.79099426161</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="K4" t="n">
-        <v>14728.79099426161</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="L4" t="n">
         <v>14728.7909942616</v>
@@ -26459,7 +26459,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="P4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
         <v>32636.50261996421</v>
@@ -26493,22 +26493,22 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-2539.365773356899</v>
+        <v>-320519.2593420964</v>
       </c>
       <c r="H6" t="n">
-        <v>-311184.027662114</v>
+        <v>51269.6017349391</v>
       </c>
       <c r="I6" t="n">
-        <v>-75109.34265409899</v>
+        <v>-75663.22309732086</v>
       </c>
       <c r="J6" t="n">
-        <v>72923.06340179534</v>
+        <v>72369.18295857338</v>
       </c>
       <c r="K6" t="n">
-        <v>72923.06340179534</v>
+        <v>72369.18295857341</v>
       </c>
       <c r="L6" t="n">
-        <v>72923.06340179534</v>
+        <v>72369.18295857338</v>
       </c>
       <c r="M6" t="n">
-        <v>72923.06340179533</v>
+        <v>72369.18295857341</v>
       </c>
       <c r="N6" t="n">
-        <v>72923.06340179536</v>
+        <v>72369.18295857341</v>
       </c>
       <c r="O6" t="n">
-        <v>72137.9277411045</v>
+        <v>-28267.60753328303</v>
       </c>
       <c r="P6" t="n">
-        <v>-25153.96540366121</v>
+        <v>72369.18295857338</v>
       </c>
     </row>
   </sheetData>
@@ -26752,31 +26752,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932211</v>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260277</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
         <v>418.1856318563248</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>328.1090524645468</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135.930542629934</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260277</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>171.8962625056093</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260277</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
-        <v>414.9230829340644</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260277</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P17" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05530620059647288</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I18" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770528</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377582</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425471</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817464</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632202</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823954</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P17" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.19716334000105</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P18" t="n">
-        <v>3.262548922260278</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.091159021271753</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770522</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.262548922260278</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377198</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819471</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M19" t="n">
-        <v>3.127817151082276</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425468</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559694</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.262548922260278</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
         <v>233.4896926139916</v>
@@ -36135,7 +36135,7 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -36199,10 +36199,10 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
@@ -36214,13 +36214,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
-        <v>153.1340173001367</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
         <v>162.5299238926254</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>162.11615811347</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M22" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N22" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O22" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P22" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N22" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="O22" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P22" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q22" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
@@ -36761,7 +36761,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712374</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998884</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
@@ -37001,10 +37001,10 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>159.6043244911502</v>
       </c>
       <c r="O31" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O34" t="n">
-        <v>277.1599674523497</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916787</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37405,10 +37405,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>300.8399982398709</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712367</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>324.3780935581793</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>304.5047560030947</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>194.3982176018706</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916793</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38177,19 +38177,19 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>167.0540751263761</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>194.39821760187</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N46" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
